--- a/lp-add_link/ig/all-profiles.xlsx
+++ b/lp-add_link/ig/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-18T08:11:10+00:00</t>
+    <t>2024-11-18T08:21:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/lp-add_link/ig/all-profiles.xlsx
+++ b/lp-add_link/ig/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-18T08:21:34+00:00</t>
+    <t>2024-11-18T08:25:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/lp-add_link/ig/all-profiles.xlsx
+++ b/lp-add_link/ig/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-18T08:25:59+00:00</t>
+    <t>2024-11-18T08:53:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/lp-add_link/ig/all-profiles.xlsx
+++ b/lp-add_link/ig/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-18T08:53:20+00:00</t>
+    <t>2024-11-18T09:09:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/lp-add_link/ig/all-profiles.xlsx
+++ b/lp-add_link/ig/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-18T09:09:51+00:00</t>
+    <t>2024-11-18T09:16:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/lp-add_link/ig/all-profiles.xlsx
+++ b/lp-add_link/ig/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-18T09:16:22+00:00</t>
+    <t>2024-11-18T09:18:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/lp-add_link/ig/all-profiles.xlsx
+++ b/lp-add_link/ig/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-18T09:18:26+00:00</t>
+    <t>2024-11-18T09:22:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/lp-add_link/ig/all-profiles.xlsx
+++ b/lp-add_link/ig/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-18T09:22:40+00:00</t>
+    <t>2024-11-18T09:25:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/lp-add_link/ig/all-profiles.xlsx
+++ b/lp-add_link/ig/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-18T09:25:57+00:00</t>
+    <t>2024-11-18T09:32:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/lp-add_link/ig/all-profiles.xlsx
+++ b/lp-add_link/ig/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-18T09:32:10+00:00</t>
+    <t>2024-11-18T09:46:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/lp-add_link/ig/all-profiles.xlsx
+++ b/lp-add_link/ig/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-18T09:46:20+00:00</t>
+    <t>2024-11-18T10:22:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/lp-add_link/ig/all-profiles.xlsx
+++ b/lp-add_link/ig/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-18T10:22:04+00:00</t>
+    <t>2024-11-18T10:38:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/lp-add_link/ig/all-profiles.xlsx
+++ b/lp-add_link/ig/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-18T10:38:12+00:00</t>
+    <t>2024-11-18T10:52:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
